--- a/src/analysis_examples/circadb/results_jtk/cosinor_10411459_tmem171_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10411459_tmem171_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.3692520010058331, 0.4575925974921844]</t>
+          <t>[0.36740789940421664, 0.45943669909380086]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>6.439293542825908e-15</v>
+        <v>1.443289932012704e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>6.439293542825908e-15</v>
+        <v>1.443289932012704e-14</v>
       </c>
       <c r="O2" t="n">
         <v>-1.106947561625232</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.5408135699464595, 0.589808774244425]</t>
+          <t>[0.5407944418823556, 0.5898279023085289]</t>
         </is>
       </c>
       <c r="U2" t="n">

--- a/src/analysis_examples/circadb/results_jtk/cosinor_10411459_tmem171_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10411459_tmem171_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.36740789940421664, 0.45943669909380086]</t>
+          <t>[0.3672443737833536, 0.4596002247146639]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.443289932012704e-14</v>
+        <v>1.554312234475219e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>1.443289932012704e-14</v>
+        <v>1.554312234475219e-14</v>
       </c>
       <c r="O2" t="n">
         <v>-1.106947561625232</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.5407944418823556, 0.5898279023085289]</t>
+          <t>[0.5407929252809619, 0.5898294189099226]</t>
         </is>
       </c>
       <c r="U2" t="n">
